--- a/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.79351063112158</v>
+        <v>12.79351063112155</v>
       </c>
       <c r="D2">
         <v>20.03933936971271</v>
       </c>
       <c r="E2">
-        <v>23.81332170815318</v>
+        <v>23.8133217081532</v>
       </c>
       <c r="F2">
-        <v>113.9506177130208</v>
+        <v>113.9506177130204</v>
       </c>
       <c r="G2">
-        <v>94.02991042491672</v>
+        <v>94.02991042491639</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.84701537374043</v>
+        <v>14.84701537374045</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,19 +441,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11.08887364235345</v>
+        <v>11.08887364235337</v>
       </c>
       <c r="D3">
-        <v>17.30689507715826</v>
+        <v>17.30689507715827</v>
       </c>
       <c r="E3">
-        <v>20.53808000239432</v>
+        <v>20.53808000239427</v>
       </c>
       <c r="F3">
-        <v>98.94100499330489</v>
+        <v>98.94100499330465</v>
       </c>
       <c r="G3">
-        <v>81.59254764465817</v>
+        <v>81.592547644658</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.84085355093291</v>
+        <v>12.84085355093289</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,19 +470,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10.23199930967456</v>
+        <v>10.23199930967447</v>
       </c>
       <c r="D4">
-        <v>15.94616697238239</v>
+        <v>15.94616697238226</v>
       </c>
       <c r="E4">
-        <v>18.91380354635244</v>
+        <v>18.91380354635237</v>
       </c>
       <c r="F4">
-        <v>91.38782831195634</v>
+        <v>91.38782831195554</v>
       </c>
       <c r="G4">
-        <v>75.33666298985619</v>
+        <v>75.33666298985553</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.85056595873438</v>
+        <v>11.85056595873437</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,19 +499,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9.902543637746774</v>
+        <v>9.902543637746836</v>
       </c>
       <c r="D5">
-        <v>15.42471448581652</v>
+        <v>15.42471448581667</v>
       </c>
       <c r="E5">
-        <v>18.29219186831196</v>
+        <v>18.2921918683121</v>
       </c>
       <c r="F5">
-        <v>88.48421374813545</v>
+        <v>88.48421374813606</v>
       </c>
       <c r="G5">
-        <v>72.93173760037702</v>
+        <v>72.93173760037753</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.47224851274975</v>
+        <v>11.47224851274988</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,19 +528,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9.848649725261629</v>
+        <v>9.848649725261593</v>
       </c>
       <c r="D6">
-        <v>15.3394937754717</v>
+        <v>15.33949377547161</v>
       </c>
       <c r="E6">
-        <v>18.19063978639945</v>
+        <v>18.19063978639939</v>
       </c>
       <c r="F6">
-        <v>88.00929825599822</v>
+        <v>88.00929825599782</v>
       </c>
       <c r="G6">
-        <v>72.53837438557586</v>
+        <v>72.53837438557552</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.41047589515997</v>
+        <v>11.41047589515991</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,19 +557,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>10.22749490437001</v>
+        <v>10.2274949043701</v>
       </c>
       <c r="D7">
-        <v>15.93903158664144</v>
+        <v>15.93903158664154</v>
       </c>
       <c r="E7">
-        <v>18.90529481252787</v>
+        <v>18.90529481252799</v>
       </c>
       <c r="F7">
-        <v>91.34812529884526</v>
+        <v>91.34812529884607</v>
       </c>
       <c r="G7">
-        <v>75.30377955340028</v>
+        <v>75.30377955340091</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.84538511078573</v>
+        <v>11.8453851107857</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,19 +586,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D8">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E8">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F8">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G8">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -615,19 +615,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D9">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E9">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F9">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G9">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,19 +644,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D10">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E10">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F10">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G10">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -673,19 +673,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D11">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E11">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F11">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G11">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,19 +702,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D12">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E12">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F12">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G12">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,19 +731,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D13">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E13">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F13">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G13">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,19 +760,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D14">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E14">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F14">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G14">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -789,19 +789,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D15">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E15">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F15">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G15">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -818,19 +818,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D16">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E16">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F16">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G16">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -847,19 +847,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D17">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E17">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F17">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G17">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,19 +876,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D18">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E18">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F18">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G18">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,19 +905,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D19">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E19">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F19">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G19">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -934,19 +934,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D20">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E20">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F20">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G20">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,19 +963,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D21">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E21">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F21">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G21">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,19 +992,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D22">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E22">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F22">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G22">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,19 +1021,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D23">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E23">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F23">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G23">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,19 +1050,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D24">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E24">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F24">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G24">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,19 +1079,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>12.13510137978781</v>
+        <v>12.1351013797876</v>
       </c>
       <c r="D25">
-        <v>18.97918664068829</v>
+        <v>18.97918664068813</v>
       </c>
       <c r="E25">
-        <v>22.53992043937647</v>
+        <v>22.53992043937632</v>
       </c>
       <c r="F25">
-        <v>108.1580394533849</v>
+        <v>108.158039453384</v>
       </c>
       <c r="G25">
-        <v>89.22849550821414</v>
+        <v>89.2284955082134</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.06533452280792</v>
+        <v>14.06533452280786</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.79351063112155</v>
+        <v>12.79351063112158</v>
       </c>
       <c r="D2">
         <v>20.03933936971271</v>
       </c>
       <c r="E2">
-        <v>23.8133217081532</v>
+        <v>23.81332170815318</v>
       </c>
       <c r="F2">
-        <v>113.9506177130204</v>
+        <v>113.9506177130208</v>
       </c>
       <c r="G2">
-        <v>94.02991042491639</v>
+        <v>94.02991042491672</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.84701537374045</v>
+        <v>14.84701537374043</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,19 +441,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11.08887364235337</v>
+        <v>11.08887364235345</v>
       </c>
       <c r="D3">
-        <v>17.30689507715827</v>
+        <v>17.30689507715826</v>
       </c>
       <c r="E3">
-        <v>20.53808000239427</v>
+        <v>20.53808000239432</v>
       </c>
       <c r="F3">
-        <v>98.94100499330465</v>
+        <v>98.94100499330489</v>
       </c>
       <c r="G3">
-        <v>81.592547644658</v>
+        <v>81.59254764465817</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.84085355093289</v>
+        <v>12.84085355093291</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,19 +470,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10.23199930967447</v>
+        <v>10.23199930967456</v>
       </c>
       <c r="D4">
-        <v>15.94616697238226</v>
+        <v>15.94616697238239</v>
       </c>
       <c r="E4">
-        <v>18.91380354635237</v>
+        <v>18.91380354635244</v>
       </c>
       <c r="F4">
-        <v>91.38782831195554</v>
+        <v>91.38782831195634</v>
       </c>
       <c r="G4">
-        <v>75.33666298985553</v>
+        <v>75.33666298985619</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.85056595873437</v>
+        <v>11.85056595873438</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,19 +499,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9.902543637746836</v>
+        <v>9.902543637746774</v>
       </c>
       <c r="D5">
-        <v>15.42471448581667</v>
+        <v>15.42471448581652</v>
       </c>
       <c r="E5">
-        <v>18.2921918683121</v>
+        <v>18.29219186831196</v>
       </c>
       <c r="F5">
-        <v>88.48421374813606</v>
+        <v>88.48421374813545</v>
       </c>
       <c r="G5">
-        <v>72.93173760037753</v>
+        <v>72.93173760037702</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.47224851274988</v>
+        <v>11.47224851274975</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,19 +528,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9.848649725261593</v>
+        <v>9.848649725261629</v>
       </c>
       <c r="D6">
-        <v>15.33949377547161</v>
+        <v>15.3394937754717</v>
       </c>
       <c r="E6">
-        <v>18.19063978639939</v>
+        <v>18.19063978639945</v>
       </c>
       <c r="F6">
-        <v>88.00929825599782</v>
+        <v>88.00929825599822</v>
       </c>
       <c r="G6">
-        <v>72.53837438557552</v>
+        <v>72.53837438557586</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.41047589515991</v>
+        <v>11.41047589515997</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,19 +557,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>10.2274949043701</v>
+        <v>10.22749490437001</v>
       </c>
       <c r="D7">
-        <v>15.93903158664154</v>
+        <v>15.93903158664144</v>
       </c>
       <c r="E7">
-        <v>18.90529481252799</v>
+        <v>18.90529481252787</v>
       </c>
       <c r="F7">
-        <v>91.34812529884607</v>
+        <v>91.34812529884526</v>
       </c>
       <c r="G7">
-        <v>75.30377955340091</v>
+        <v>75.30377955340028</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.8453851107857</v>
+        <v>11.84538511078573</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,19 +586,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D8">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E8">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F8">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G8">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -615,19 +615,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D9">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E9">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F9">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G9">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,19 +644,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D10">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E10">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F10">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G10">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -673,19 +673,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D11">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E11">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F11">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G11">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,19 +702,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D12">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E12">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F12">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G12">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,19 +731,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D13">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E13">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F13">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G13">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,19 +760,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D14">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E14">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F14">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G14">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -789,19 +789,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D15">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E15">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F15">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G15">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -818,19 +818,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D16">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E16">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F16">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G16">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -847,19 +847,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D17">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E17">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F17">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G17">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,19 +876,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D18">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E18">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F18">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G18">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,19 +905,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D19">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E19">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F19">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G19">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -934,19 +934,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D20">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E20">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F20">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G20">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,19 +963,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D21">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E21">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F21">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G21">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,19 +992,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D22">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E22">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F22">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G22">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,19 +1021,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D23">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E23">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F23">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G23">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,19 +1050,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D24">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E24">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F24">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G24">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,19 +1079,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>12.1351013797876</v>
+        <v>12.13510137978781</v>
       </c>
       <c r="D25">
-        <v>18.97918664068813</v>
+        <v>18.97918664068829</v>
       </c>
       <c r="E25">
-        <v>22.53992043937632</v>
+        <v>22.53992043937647</v>
       </c>
       <c r="F25">
-        <v>108.158039453384</v>
+        <v>108.1580394533849</v>
       </c>
       <c r="G25">
-        <v>89.2284955082134</v>
+        <v>89.22849550821414</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.06533452280786</v>
+        <v>14.06533452280792</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,701 +406,776 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.79351063112158</v>
+        <v>12.77416738762641</v>
       </c>
       <c r="D2">
-        <v>20.03933936971271</v>
+        <v>19.9764280198282</v>
       </c>
       <c r="E2">
-        <v>23.81332170815318</v>
+        <v>23.7753529639651</v>
       </c>
       <c r="F2">
-        <v>113.9506177130208</v>
+        <v>113.6593802786952</v>
       </c>
       <c r="G2">
-        <v>94.02991042491672</v>
+        <v>94.01327441245945</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>93.53402303510771</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>14.84701537374043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>14.82374836392998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11.08887364235345</v>
+        <v>11.08029728009048</v>
       </c>
       <c r="D3">
-        <v>17.30689507715826</v>
+        <v>17.26586335232062</v>
       </c>
       <c r="E3">
-        <v>20.53808000239432</v>
+        <v>20.52159796456774</v>
       </c>
       <c r="F3">
-        <v>98.94100499330489</v>
+        <v>98.75978537820055</v>
       </c>
       <c r="G3">
-        <v>81.59254764465817</v>
+        <v>81.6377482210723</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>81.23950433600258</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>12.84085355093291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>12.83087993933257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10.23199930967456</v>
+        <v>10.22605568988476</v>
       </c>
       <c r="D4">
-        <v>15.94616697238239</v>
+        <v>15.911499327697</v>
       </c>
       <c r="E4">
-        <v>18.91380354635244</v>
+        <v>18.9024694544483</v>
       </c>
       <c r="F4">
-        <v>91.38782831195634</v>
+        <v>91.23775327632501</v>
       </c>
       <c r="G4">
-        <v>75.33666298985619</v>
+        <v>75.39280417790124</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>75.04315348768552</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>11.85056595873438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>11.84375114058922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9.902543637746774</v>
+        <v>9.897371084202513</v>
       </c>
       <c r="D5">
-        <v>15.42471448581652</v>
+        <v>15.39209394572935</v>
       </c>
       <c r="E5">
-        <v>18.29219186831196</v>
+        <v>18.2823531200577</v>
       </c>
       <c r="F5">
-        <v>88.48421374813545</v>
+        <v>88.34401108734259</v>
       </c>
       <c r="G5">
-        <v>72.93173760037702</v>
+        <v>72.9903379175751</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>72.66111185000432</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>11.47224851274975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>11.46634780010572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9.848649725261629</v>
+        <v>9.843593332352606</v>
       </c>
       <c r="D6">
-        <v>15.3394937754717</v>
+        <v>15.30719161309357</v>
       </c>
       <c r="E6">
-        <v>18.19063978639945</v>
+        <v>18.1810257511928</v>
       </c>
       <c r="F6">
-        <v>88.00929825599822</v>
+        <v>87.87062347577253</v>
       </c>
       <c r="G6">
-        <v>72.53837438557586</v>
+        <v>72.59730475700749</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>72.27152203652145</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>11.41047589515997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>11.40471238388854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>10.22749490437001</v>
+        <v>10.2215625837378</v>
       </c>
       <c r="D7">
-        <v>15.93903158664144</v>
+        <v>15.90439318323076</v>
       </c>
       <c r="E7">
-        <v>18.90529481252787</v>
+        <v>18.89398267816441</v>
       </c>
       <c r="F7">
-        <v>91.34812529884526</v>
+        <v>91.19819184648921</v>
       </c>
       <c r="G7">
-        <v>75.30377955340028</v>
+        <v>75.35995984533282</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>75.01058140464038</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>11.84538511078573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>11.83858372838988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D8">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E8">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F8">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G8">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D9">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E9">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F9">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G9">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D10">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E10">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F10">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G10">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D11">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E11">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F11">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G11">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D12">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E12">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F12">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G12">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D13">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E13">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F13">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G13">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D14">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E14">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F14">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G14">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D15">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E15">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F15">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G15">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D16">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E16">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F16">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G16">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D17">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E17">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F17">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G17">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D18">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E18">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F18">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G18">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D19">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E19">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F19">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G19">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D20">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E20">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F20">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G20">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D21">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E21">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F21">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G21">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D22">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E22">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F22">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G22">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D23">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E23">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F23">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G23">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D24">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E24">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F24">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G24">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>14.06533452280792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>14.04893835308042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>12.13510137978781</v>
+        <v>12.12127657553427</v>
       </c>
       <c r="D25">
-        <v>18.97918664068829</v>
+        <v>18.92699904644458</v>
       </c>
       <c r="E25">
-        <v>22.53992043937647</v>
+        <v>22.51303174455196</v>
       </c>
       <c r="F25">
-        <v>108.1580394533849</v>
+        <v>107.9211039949374</v>
       </c>
       <c r="G25">
-        <v>89.22849550821414</v>
+        <v>89.24559717793827</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>88.79547678671734</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>14.06533452280792</v>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>14.04893835308042</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
@@ -420,23 +420,20 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.419916800493151</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.780316404369275</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9.509247275504217</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>41.26537917310193</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.005860463104123</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,137 +442,818 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>6.6252060556357</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
-        <v>0</v>
+        <v>30.84235715246495</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>6.88224672233803</v>
+      </c>
+      <c r="D3">
+        <v>4.767941492040307</v>
+      </c>
+      <c r="E3">
+        <v>9.179329946718413</v>
+      </c>
+      <c r="F3">
+        <v>38.73022454327987</v>
+      </c>
+      <c r="G3">
+        <v>2.018023020747497</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>6.454006984632595</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>28.97036605393618</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>6.536407703214104</v>
+      </c>
+      <c r="D4">
+        <v>4.762487790653489</v>
+      </c>
+      <c r="E4">
+        <v>8.980024321066471</v>
+      </c>
+      <c r="F4">
+        <v>37.13487151948781</v>
+      </c>
+      <c r="G4">
+        <v>2.025640147927582</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>6.352636191121105</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>27.79376843338406</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>6.391438969529463</v>
+      </c>
+      <c r="D5">
+        <v>4.760786710823249</v>
+      </c>
+      <c r="E5">
+        <v>8.899673335319894</v>
+      </c>
+      <c r="F5">
+        <v>36.47533572515513</v>
+      </c>
+      <c r="G5">
+        <v>2.028785446003604</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6.312265788661428</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>27.3077143425511</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>6.367120806816617</v>
+      </c>
+      <c r="D6">
+        <v>4.760535230614544</v>
+      </c>
+      <c r="E6">
+        <v>8.886385066009456</v>
+      </c>
+      <c r="F6">
+        <v>36.36526460933414</v>
+      </c>
+      <c r="G6">
+        <v>2.02931031462333</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6.305618985443155</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>27.22661795448155</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>6.534469058205616</v>
+      </c>
+      <c r="D7">
+        <v>4.76246276133012</v>
+      </c>
+      <c r="E7">
+        <v>8.978937097674805</v>
+      </c>
+      <c r="F7">
+        <v>37.12601435316878</v>
+      </c>
+      <c r="G7">
+        <v>2.025682394792774</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6.352087941853338</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>27.78723955156477</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>7.237733906893213</v>
+      </c>
+      <c r="D8">
+        <v>4.77559332083218</v>
+      </c>
+      <c r="E8">
+        <v>9.394838744755321</v>
+      </c>
+      <c r="F8">
+        <v>40.39944576938565</v>
+      </c>
+      <c r="G8">
+        <v>2.010025485171373</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>6.565396303841578</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.20265043434652</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>8.496502102439745</v>
+      </c>
+      <c r="D9">
+        <v>4.819228356888946</v>
+      </c>
+      <c r="E9">
+        <v>10.23497602653491</v>
+      </c>
+      <c r="F9">
+        <v>46.50576077762683</v>
+      </c>
+      <c r="G9">
+        <v>1.980317961362474</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.013805013951015</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>34.86531709445575</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>9.354655558205904</v>
+      </c>
+      <c r="D10">
+        <v>4.863519940609367</v>
+      </c>
+      <c r="E10">
+        <v>10.86675273434242</v>
+      </c>
+      <c r="F10">
+        <v>51.0253678461369</v>
+      </c>
+      <c r="G10">
+        <v>1.958797704651079</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.362737833964025</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>38.38151826727248</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>9.732307392773503</v>
+      </c>
+      <c r="D11">
+        <v>4.886662326486432</v>
+      </c>
+      <c r="E11">
+        <v>11.15770093574514</v>
+      </c>
+      <c r="F11">
+        <v>53.04626532141463</v>
+      </c>
+      <c r="G11">
+        <v>1.948993791742199</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.526181146053617</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>39.93936365335509</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>9.873652498148768</v>
+      </c>
+      <c r="D12">
+        <v>4.895888649646784</v>
+      </c>
+      <c r="E12">
+        <v>11.26845561196101</v>
+      </c>
+      <c r="F12">
+        <v>53.80538298888766</v>
+      </c>
+      <c r="G12">
+        <v>1.945271275990376</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.588810223440294</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>40.52395228489087</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>9.843282361506859</v>
+      </c>
+      <c r="D13">
+        <v>4.893880449221896</v>
+      </c>
+      <c r="E13">
+        <v>11.24457539524081</v>
+      </c>
+      <c r="F13">
+        <v>53.64215257220683</v>
+      </c>
+      <c r="G13">
+        <v>1.946073571084046</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7.575288007499366</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>40.39827584306332</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>9.743968234584086</v>
+      </c>
+      <c r="D14">
+        <v>4.88741190517655</v>
+      </c>
+      <c r="E14">
+        <v>11.16680066995425</v>
+      </c>
+      <c r="F14">
+        <v>53.10883654391906</v>
+      </c>
+      <c r="G14">
+        <v>1.948687788428682</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7.531318503264238</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>39.98756071898962</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>9.682924200306472</v>
+      </c>
+      <c r="D15">
+        <v>4.883511041248176</v>
+      </c>
+      <c r="E15">
+        <v>11.11923942445182</v>
+      </c>
+      <c r="F15">
+        <v>52.7813902412167</v>
+      </c>
+      <c r="G15">
+        <v>1.950287513647421</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.504483944348</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>39.73531325442517</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>9.329732729216142</v>
+      </c>
+      <c r="D16">
+        <v>4.862070436341661</v>
+      </c>
+      <c r="E16">
+        <v>10.84781508857485</v>
+      </c>
+      <c r="F16">
+        <v>50.89238984834957</v>
+      </c>
+      <c r="G16">
+        <v>1.959437476975281</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7.352155846829341</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>38.27892393056676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>9.10991280152035</v>
+      </c>
+      <c r="D17">
+        <v>4.849705756379348</v>
+      </c>
+      <c r="E17">
+        <v>10.682252341946</v>
+      </c>
+      <c r="F17">
+        <v>49.72170052573946</v>
+      </c>
+      <c r="G17">
+        <v>1.965041776125988</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7.259950308084933</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>37.37522662739573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>8.982269051776083</v>
+      </c>
+      <c r="D18">
+        <v>4.842873556241687</v>
+      </c>
+      <c r="E18">
+        <v>10.58735313429317</v>
+      </c>
+      <c r="F18">
+        <v>49.04375770153572</v>
+      </c>
+      <c r="G18">
+        <v>1.968264423755962</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.207355039624868</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>36.85147230653767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>8.938838708019416</v>
+      </c>
+      <c r="D19">
+        <v>4.840607405067133</v>
+      </c>
+      <c r="E19">
+        <v>10.55527671069225</v>
+      </c>
+      <c r="F19">
+        <v>48.81340840347637</v>
+      </c>
+      <c r="G19">
+        <v>1.969355641645234</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.189621086607979</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>36.67343799849662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>9.133437019196199</v>
+      </c>
+      <c r="D20">
+        <v>4.850992836477299</v>
+      </c>
+      <c r="E20">
+        <v>10.69984243445479</v>
+      </c>
+      <c r="F20">
+        <v>49.84679276666014</v>
+      </c>
+      <c r="G20">
+        <v>1.9644453248845</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7.269719953759066</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>37.4718334244663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>9.773182895026622</v>
+      </c>
+      <c r="D21">
+        <v>4.889299033023723</v>
+      </c>
+      <c r="E21">
+        <v>11.18962856026799</v>
+      </c>
+      <c r="F21">
+        <v>53.26564419846471</v>
+      </c>
+      <c r="G21">
+        <v>1.947920270251662</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.544212847786929</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>40.10833649392774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>10.18169429665398</v>
+      </c>
+      <c r="D22">
+        <v>4.917050411194436</v>
+      </c>
+      <c r="E22">
+        <v>11.5131646303908</v>
+      </c>
+      <c r="F22">
+        <v>55.46470673314415</v>
+      </c>
+      <c r="G22">
+        <v>1.937057295329507</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7.727946581520693</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>41.80076692353069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>9.964480609206996</v>
+      </c>
+      <c r="D23">
+        <v>4.901978545496754</v>
+      </c>
+      <c r="E23">
+        <v>11.34014117888671</v>
+      </c>
+      <c r="F23">
+        <v>54.29395156935431</v>
+      </c>
+      <c r="G23">
+        <v>1.942863804381243</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.629462536240589</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>40.90003578719978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>9.122805676967113</v>
+      </c>
+      <c r="D24">
+        <v>4.85041008894681</v>
+      </c>
+      <c r="E24">
+        <v>10.69188907050793</v>
+      </c>
+      <c r="F24">
+        <v>49.79025387662487</v>
+      </c>
+      <c r="G24">
+        <v>1.964714977850519</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.265301808714872</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>37.42817064254723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>8.168208702626186</v>
+      </c>
+      <c r="D25">
+        <v>4.805379646435748</v>
+      </c>
+      <c r="E25">
+        <v>10.00518796978213</v>
+      </c>
+      <c r="F25">
+        <v>44.88738445872443</v>
+      </c>
+      <c r="G25">
+        <v>1.98827672134202</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6.889191731592996</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>33.52978917914101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.419916800493151</v>
+        <v>4.917497143191845</v>
       </c>
       <c r="D2">
-        <v>4.780316404369275</v>
+        <v>8.379534470898294</v>
       </c>
       <c r="E2">
-        <v>9.509247275504217</v>
+        <v>13.17150488204265</v>
       </c>
       <c r="F2">
-        <v>41.26537917310193</v>
+        <v>38.31587132213524</v>
       </c>
       <c r="G2">
-        <v>2.005860463104123</v>
+        <v>3.637461528759323</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.6252060556357</v>
+        <v>9.9707373658851</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.84235715246495</v>
+        <v>29.15539173534993</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.88224672233803</v>
+        <v>4.750038287576726</v>
       </c>
       <c r="D3">
-        <v>4.767941492040307</v>
+        <v>8.39465060956497</v>
       </c>
       <c r="E3">
-        <v>9.179329946718413</v>
+        <v>13.15978120347594</v>
       </c>
       <c r="F3">
-        <v>38.73022454327987</v>
+        <v>37.81025459191149</v>
       </c>
       <c r="G3">
-        <v>2.018023020747497</v>
+        <v>3.641781056497856</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.454006984632595</v>
+        <v>9.975187776357545</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.97036605393618</v>
+        <v>28.79417684634626</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.536407703214104</v>
+        <v>4.645915767838323</v>
       </c>
       <c r="D4">
-        <v>4.762487790653489</v>
+        <v>8.404845278276241</v>
       </c>
       <c r="E4">
-        <v>8.980024321066471</v>
+        <v>13.15545742062733</v>
       </c>
       <c r="F4">
-        <v>37.13487151948781</v>
+        <v>37.50866947976637</v>
       </c>
       <c r="G4">
-        <v>2.025640147927582</v>
+        <v>3.644570570457482</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.352636191121105</v>
+        <v>9.979858037231621</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.79376843338406</v>
+        <v>28.57929408398374</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.391438969529463</v>
+        <v>4.603233074408466</v>
       </c>
       <c r="D5">
-        <v>4.760786710823249</v>
+        <v>8.409229529079532</v>
       </c>
       <c r="E5">
-        <v>8.899673335319894</v>
+        <v>13.15441859798488</v>
       </c>
       <c r="F5">
-        <v>36.47533572515513</v>
+        <v>37.38814548990334</v>
       </c>
       <c r="G5">
-        <v>2.028785446003604</v>
+        <v>3.645741988541843</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.312265788661428</v>
+        <v>9.982247850571039</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.3077143425511</v>
+        <v>28.49356298653688</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.367120806816617</v>
+        <v>4.596132744288062</v>
       </c>
       <c r="D6">
-        <v>4.760535230614544</v>
+        <v>8.40997141774162</v>
       </c>
       <c r="E6">
-        <v>8.886385066009456</v>
+        <v>13.15428977878576</v>
       </c>
       <c r="F6">
-        <v>36.36526460933414</v>
+        <v>37.36828010956901</v>
       </c>
       <c r="G6">
-        <v>2.02931031462333</v>
+        <v>3.645938599671351</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.305618985443155</v>
+        <v>9.982674048260337</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.22661795448155</v>
+        <v>28.47944106643437</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.534469058205616</v>
+        <v>4.645341050299908</v>
       </c>
       <c r="D7">
-        <v>4.76246276133012</v>
+        <v>8.404903474950212</v>
       </c>
       <c r="E7">
-        <v>8.978937097674805</v>
+        <v>13.15544048259849</v>
       </c>
       <c r="F7">
-        <v>37.12601435316878</v>
+        <v>37.50703424965018</v>
       </c>
       <c r="G7">
-        <v>2.025682394792774</v>
+        <v>3.644586228050325</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.352087941853338</v>
+        <v>9.979888297599421</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.78723955156477</v>
+        <v>28.57813032523613</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.237733906893213</v>
+        <v>4.860071148188004</v>
       </c>
       <c r="D8">
-        <v>4.77559332083218</v>
+        <v>8.384557071697474</v>
       </c>
       <c r="E8">
-        <v>9.394838744755321</v>
+        <v>13.16686625684076</v>
       </c>
       <c r="F8">
-        <v>40.39944576938565</v>
+        <v>38.1397832623194</v>
       </c>
       <c r="G8">
-        <v>2.010025485171373</v>
+        <v>3.638922489430194</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.565396303841578</v>
+        <v>9.971869385334447</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.20265043434652</v>
+        <v>29.02947253667042</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.496502102439745</v>
+        <v>5.267797834203716</v>
       </c>
       <c r="D9">
-        <v>4.819228356888946</v>
+        <v>8.351896488628002</v>
       </c>
       <c r="E9">
-        <v>10.23497602653491</v>
+        <v>13.21204874189657</v>
       </c>
       <c r="F9">
-        <v>46.50576077762683</v>
+        <v>39.44433865126175</v>
       </c>
       <c r="G9">
-        <v>1.980317961362474</v>
+        <v>3.628898923999385</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.013805013951015</v>
+        <v>9.97154006306204</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>34.86531709445575</v>
+        <v>29.96479493695715</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.354655558205904</v>
+        <v>5.555577424452244</v>
       </c>
       <c r="D10">
-        <v>4.863519940609367</v>
+        <v>8.33230312347232</v>
       </c>
       <c r="E10">
-        <v>10.86675273434242</v>
+        <v>13.25905958193102</v>
       </c>
       <c r="F10">
-        <v>51.0253678461369</v>
+        <v>40.43258108286882</v>
       </c>
       <c r="G10">
-        <v>1.958797704651079</v>
+        <v>3.622185812989635</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.362737833964025</v>
+        <v>9.980703773332717</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>38.38151826727248</v>
+        <v>30.67632919590963</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.732307392773503</v>
+        <v>5.683289480366705</v>
       </c>
       <c r="D11">
-        <v>4.886662326486432</v>
+        <v>8.324343274162562</v>
       </c>
       <c r="E11">
-        <v>11.15770093574514</v>
+        <v>13.28342094219021</v>
       </c>
       <c r="F11">
-        <v>53.04626532141463</v>
+        <v>40.88667420338388</v>
       </c>
       <c r="G11">
-        <v>1.948993791742199</v>
+        <v>3.619271314870923</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.526181146053617</v>
+        <v>9.986915426135704</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>39.93936365335509</v>
+        <v>31.00394998365647</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.873652498148768</v>
+        <v>5.731144146241998</v>
       </c>
       <c r="D12">
-        <v>4.895888649646784</v>
+        <v>8.321465978278935</v>
       </c>
       <c r="E12">
-        <v>11.26845561196101</v>
+        <v>13.29307089710904</v>
       </c>
       <c r="F12">
-        <v>53.80538298888766</v>
+        <v>41.05911770167091</v>
       </c>
       <c r="G12">
-        <v>1.945271275990376</v>
+        <v>3.618187556162465</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.588810223440294</v>
+        <v>9.989561056539991</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>40.52395228489087</v>
+        <v>31.12846399087006</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.843282361506859</v>
+        <v>5.720861031978075</v>
       </c>
       <c r="D13">
-        <v>4.893880449221896</v>
+        <v>8.322079568073088</v>
       </c>
       <c r="E13">
-        <v>11.24457539524081</v>
+        <v>13.29097376640005</v>
       </c>
       <c r="F13">
-        <v>53.64215257220683</v>
+        <v>41.02195977649668</v>
       </c>
       <c r="G13">
-        <v>1.946073571084046</v>
+        <v>3.618420080178943</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.575288007499366</v>
+        <v>9.988978231202932</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>40.39827584306332</v>
+        <v>31.10162943268644</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.743968234584086</v>
+        <v>5.687236925558989</v>
       </c>
       <c r="D14">
-        <v>4.88741190517655</v>
+        <v>8.324103813980873</v>
       </c>
       <c r="E14">
-        <v>11.16680066995425</v>
+        <v>13.28420635488909</v>
       </c>
       <c r="F14">
-        <v>53.10883654391906</v>
+        <v>40.90085237832001</v>
       </c>
       <c r="G14">
-        <v>1.948687788428682</v>
+        <v>3.619181755378191</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.531318503264238</v>
+        <v>9.987127206179997</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>39.98756071898962</v>
+        <v>31.01418544175409</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.682924200306472</v>
+        <v>5.666573847298634</v>
       </c>
       <c r="D15">
-        <v>4.883511041248176</v>
+        <v>8.325361550291001</v>
       </c>
       <c r="E15">
-        <v>11.11923942445182</v>
+        <v>13.28011634602458</v>
       </c>
       <c r="F15">
-        <v>52.7813902412167</v>
+        <v>40.82672936358064</v>
       </c>
       <c r="G15">
-        <v>1.950287513647421</v>
+        <v>3.619650890739402</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.504483944348</v>
+        <v>9.986031596312412</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>39.73531325442517</v>
+        <v>30.96067881572742</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.329732729216142</v>
+        <v>5.54716260824822</v>
       </c>
       <c r="D16">
-        <v>4.862070436341661</v>
+        <v>8.332842487610503</v>
       </c>
       <c r="E16">
-        <v>10.84781508857485</v>
+        <v>13.25752713912081</v>
       </c>
       <c r="F16">
-        <v>50.89238984834957</v>
+        <v>40.40298223827926</v>
       </c>
       <c r="G16">
-        <v>1.959437476975281</v>
+        <v>3.622379074251351</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.352155846829341</v>
+        <v>9.980338910971648</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>38.27892393056676</v>
+        <v>30.65498779838077</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.10991280152035</v>
+        <v>5.473052887979478</v>
       </c>
       <c r="D17">
-        <v>4.849705756379348</v>
+        <v>8.337675848306244</v>
       </c>
       <c r="E17">
-        <v>10.682252341946</v>
+        <v>13.24442954544496</v>
       </c>
       <c r="F17">
-        <v>49.72170052573946</v>
+        <v>40.144071592475</v>
       </c>
       <c r="G17">
-        <v>1.965041776125988</v>
+        <v>3.624088314602398</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.259950308084933</v>
+        <v>9.977369701394309</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>37.37522662739573</v>
+        <v>30.46838297396408</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>8.982269051776083</v>
+        <v>5.430128156078242</v>
       </c>
       <c r="D18">
-        <v>4.842873556241687</v>
+        <v>8.340545605306088</v>
       </c>
       <c r="E18">
-        <v>10.58735313429317</v>
+        <v>13.23717647786321</v>
       </c>
       <c r="F18">
-        <v>49.04375770153572</v>
+        <v>39.99558975782939</v>
       </c>
       <c r="G18">
-        <v>1.968264423755962</v>
+        <v>3.62508454699288</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.207355039624868</v>
+        <v>9.975854225933658</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>36.85147230653767</v>
+        <v>30.36143056204235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>8.938838708019416</v>
+        <v>5.415544782208891</v>
       </c>
       <c r="D19">
-        <v>4.840607405067133</v>
+        <v>8.341532672509217</v>
       </c>
       <c r="E19">
-        <v>10.55527671069225</v>
+        <v>13.23476894553338</v>
       </c>
       <c r="F19">
-        <v>48.81340840347637</v>
+        <v>39.94539640463731</v>
       </c>
       <c r="G19">
-        <v>1.969355641645234</v>
+        <v>3.625424112149467</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.189621086607979</v>
+        <v>9.975374153825003</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>36.67343799849662</v>
+        <v>30.32528672754191</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.133437019196199</v>
+        <v>5.480973273934521</v>
       </c>
       <c r="D20">
-        <v>4.850992836477299</v>
+        <v>8.337152042595159</v>
       </c>
       <c r="E20">
-        <v>10.69984243445479</v>
+        <v>13.24579481525484</v>
       </c>
       <c r="F20">
-        <v>49.84679276666014</v>
+        <v>40.17158907014781</v>
       </c>
       <c r="G20">
-        <v>1.9644453248845</v>
+        <v>3.623905005908868</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.269719953759066</v>
+        <v>9.977665874913981</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>37.4718334244663</v>
+        <v>30.48820912084535</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.773182895026622</v>
+        <v>5.697127250980085</v>
       </c>
       <c r="D21">
-        <v>4.889299033023723</v>
+        <v>8.323505528986789</v>
       </c>
       <c r="E21">
-        <v>11.18962856026799</v>
+        <v>13.28618260483255</v>
       </c>
       <c r="F21">
-        <v>53.26564419846471</v>
+        <v>40.93641259953612</v>
       </c>
       <c r="G21">
-        <v>1.947920270251662</v>
+        <v>3.618957493960103</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.544212847786929</v>
+        <v>9.987662937952054</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>40.10833649392774</v>
+        <v>31.03985853224044</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10.18169429665398</v>
+        <v>5.835422455774034</v>
       </c>
       <c r="D22">
-        <v>4.917050411194436</v>
+        <v>8.315384781008179</v>
       </c>
       <c r="E22">
-        <v>11.5131646303908</v>
+        <v>13.31505285444387</v>
       </c>
       <c r="F22">
-        <v>55.46470673314415</v>
+        <v>41.43904107124746</v>
       </c>
       <c r="G22">
-        <v>1.937057295329507</v>
+        <v>3.615839929079876</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.727946581520693</v>
+        <v>9.995906512116214</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>41.80076692353069</v>
+        <v>31.40297030428745</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.964480609206996</v>
+        <v>5.761897942792263</v>
       </c>
       <c r="D23">
-        <v>4.901978545496754</v>
+        <v>8.319646008059124</v>
       </c>
       <c r="E23">
-        <v>11.34014117888671</v>
+        <v>13.29941899025573</v>
       </c>
       <c r="F23">
-        <v>54.29395156935431</v>
+        <v>41.17057863238667</v>
       </c>
       <c r="G23">
-        <v>1.942863804381243</v>
+        <v>3.617493270602819</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.629462536240589</v>
+        <v>9.991350479635134</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>40.90003578719978</v>
+        <v>31.20897271189405</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.122805676967113</v>
+        <v>5.477393454532767</v>
       </c>
       <c r="D24">
-        <v>4.85041008894681</v>
+        <v>8.3373885717213</v>
       </c>
       <c r="E24">
-        <v>10.69188907050793</v>
+        <v>13.2451767140214</v>
       </c>
       <c r="F24">
-        <v>49.79025387662487</v>
+        <v>40.1591472555916</v>
       </c>
       <c r="G24">
-        <v>1.964714977850519</v>
+        <v>3.623987837499457</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.265301808714872</v>
+        <v>9.977531378164741</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>37.42817064254723</v>
+        <v>30.47924468572206</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.168208702626186</v>
+        <v>5.159325451038388</v>
       </c>
       <c r="D25">
-        <v>4.805379646435748</v>
+        <v>8.359958167409118</v>
       </c>
       <c r="E25">
-        <v>10.00518796978213</v>
+        <v>13.19739254666036</v>
       </c>
       <c r="F25">
-        <v>44.88738445872443</v>
+        <v>39.08552773273311</v>
       </c>
       <c r="G25">
-        <v>1.98827672134202</v>
+        <v>3.631495555123247</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.889191731592996</v>
+        <v>9.969978108515276</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>33.52978917914101</v>
+        <v>29.70702748933627</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.917497143191845</v>
+        <v>7.419916800493217</v>
       </c>
       <c r="D2">
-        <v>8.379534470898294</v>
+        <v>4.780316404369228</v>
       </c>
       <c r="E2">
-        <v>13.17150488204265</v>
+        <v>9.509247275504238</v>
       </c>
       <c r="F2">
-        <v>38.31587132213524</v>
+        <v>41.26537917310198</v>
       </c>
       <c r="G2">
-        <v>3.637461528759323</v>
+        <v>2.005860463104125</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.9707373658851</v>
+        <v>6.625206055635697</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.15539173534993</v>
+        <v>30.84235715246497</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.750038287576726</v>
+        <v>6.882246722338077</v>
       </c>
       <c r="D3">
-        <v>8.39465060956497</v>
+        <v>4.76794149204025</v>
       </c>
       <c r="E3">
-        <v>13.15978120347594</v>
+        <v>9.179329946718353</v>
       </c>
       <c r="F3">
-        <v>37.81025459191149</v>
+        <v>38.73022454327984</v>
       </c>
       <c r="G3">
-        <v>3.641781056497856</v>
+        <v>2.018023020747489</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.975187776357545</v>
+        <v>6.454006984632561</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.79417684634626</v>
+        <v>28.97036605393617</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.645915767838323</v>
+        <v>6.536407703214057</v>
       </c>
       <c r="D4">
-        <v>8.404845278276241</v>
+        <v>4.762487790653432</v>
       </c>
       <c r="E4">
-        <v>13.15545742062733</v>
+        <v>8.980024321066473</v>
       </c>
       <c r="F4">
-        <v>37.50866947976637</v>
+        <v>37.1348715194878</v>
       </c>
       <c r="G4">
-        <v>3.644570570457482</v>
+        <v>2.025640147927714</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.979858037231621</v>
+        <v>6.352636191121147</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.57929408398374</v>
+        <v>27.79376843338407</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.603233074408466</v>
+        <v>6.391438969529542</v>
       </c>
       <c r="D5">
-        <v>8.409229529079532</v>
+        <v>4.760786710823253</v>
       </c>
       <c r="E5">
-        <v>13.15441859798488</v>
+        <v>8.899673335319925</v>
       </c>
       <c r="F5">
-        <v>37.38814548990334</v>
+        <v>36.47533572515511</v>
       </c>
       <c r="G5">
-        <v>3.645741988541843</v>
+        <v>2.028785446003732</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.982247850571039</v>
+        <v>6.312265788661469</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.49356298653688</v>
+        <v>27.30771434255106</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.596132744288062</v>
+        <v>6.367120806816601</v>
       </c>
       <c r="D6">
-        <v>8.40997141774162</v>
+        <v>4.76053523061443</v>
       </c>
       <c r="E6">
-        <v>13.15428977878576</v>
+        <v>8.886385066009419</v>
       </c>
       <c r="F6">
-        <v>37.36828010956901</v>
+        <v>36.36526460933418</v>
       </c>
       <c r="G6">
-        <v>3.645938599671351</v>
+        <v>2.029310314623328</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.982674048260337</v>
+        <v>6.305618985443216</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.47944106643437</v>
+        <v>27.22661795448159</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.645341050299908</v>
+        <v>6.534469058205664</v>
       </c>
       <c r="D7">
-        <v>8.404903474950212</v>
+        <v>4.762462761330187</v>
       </c>
       <c r="E7">
-        <v>13.15544048259849</v>
+        <v>8.978937097674804</v>
       </c>
       <c r="F7">
-        <v>37.50703424965018</v>
+        <v>37.12601435316883</v>
       </c>
       <c r="G7">
-        <v>3.644586228050325</v>
+        <v>2.025682394793043</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.979888297599421</v>
+        <v>6.352087941853325</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.57813032523613</v>
+        <v>27.78723955156481</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.860071148188004</v>
+        <v>7.237733906893315</v>
       </c>
       <c r="D8">
-        <v>8.384557071697474</v>
+        <v>4.775593320832189</v>
       </c>
       <c r="E8">
-        <v>13.16686625684076</v>
+        <v>9.394838744755369</v>
       </c>
       <c r="F8">
-        <v>38.1397832623194</v>
+        <v>40.39944576938567</v>
       </c>
       <c r="G8">
-        <v>3.638922489430194</v>
+        <v>2.010025485171375</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.971869385334447</v>
+        <v>6.56539630384161</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.02947253667042</v>
+        <v>30.20265043434653</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.267797834203716</v>
+        <v>8.496502102439692</v>
       </c>
       <c r="D9">
-        <v>8.351896488628002</v>
+        <v>4.819228356888903</v>
       </c>
       <c r="E9">
-        <v>13.21204874189657</v>
+        <v>10.23497602653493</v>
       </c>
       <c r="F9">
-        <v>39.44433865126175</v>
+        <v>46.50576077762684</v>
       </c>
       <c r="G9">
-        <v>3.628898923999385</v>
+        <v>1.980317961362469</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.97154006306204</v>
+        <v>7.013805013951036</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.96479493695715</v>
+        <v>34.86531709445575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.555577424452244</v>
+        <v>9.354655558205833</v>
       </c>
       <c r="D10">
-        <v>8.33230312347232</v>
+        <v>4.863519940609317</v>
       </c>
       <c r="E10">
-        <v>13.25905958193102</v>
+        <v>10.86675273434241</v>
       </c>
       <c r="F10">
-        <v>40.43258108286882</v>
+        <v>51.0253678461369</v>
       </c>
       <c r="G10">
-        <v>3.622185812989635</v>
+        <v>1.958797704651082</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.980703773332717</v>
+        <v>7.362737833964032</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>30.67632919590963</v>
+        <v>38.38151826727248</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.683289480366705</v>
+        <v>9.732307392773503</v>
       </c>
       <c r="D11">
-        <v>8.324343274162562</v>
+        <v>4.88666232648642</v>
       </c>
       <c r="E11">
-        <v>13.28342094219021</v>
+        <v>11.15770093574516</v>
       </c>
       <c r="F11">
-        <v>40.88667420338388</v>
+        <v>53.04626532141463</v>
       </c>
       <c r="G11">
-        <v>3.619271314870923</v>
+        <v>1.948993791742334</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.986915426135704</v>
+        <v>7.526181146053639</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>31.00394998365647</v>
+        <v>39.93936365335509</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.731144146241998</v>
+        <v>9.87365249814871</v>
       </c>
       <c r="D12">
-        <v>8.321465978278935</v>
+        <v>4.895888649646747</v>
       </c>
       <c r="E12">
-        <v>13.29307089710904</v>
+        <v>11.26845561196099</v>
       </c>
       <c r="F12">
-        <v>41.05911770167091</v>
+        <v>53.80538298888761</v>
       </c>
       <c r="G12">
-        <v>3.618187556162465</v>
+        <v>1.945271275990371</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.989561056539991</v>
+        <v>7.58881022344031</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>31.12846399087006</v>
+        <v>40.5239522848908</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.720861031978075</v>
+        <v>9.843282361506873</v>
       </c>
       <c r="D13">
-        <v>8.322079568073088</v>
+        <v>4.893880449221933</v>
       </c>
       <c r="E13">
-        <v>13.29097376640005</v>
+        <v>11.24457539524078</v>
       </c>
       <c r="F13">
-        <v>41.02195977649668</v>
+        <v>53.64215257220675</v>
       </c>
       <c r="G13">
-        <v>3.618420080178943</v>
+        <v>1.946073571084455</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.988978231202932</v>
+        <v>7.575288007499363</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>31.10162943268644</v>
+        <v>40.39827584306326</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.687236925558989</v>
+        <v>9.743968234584102</v>
       </c>
       <c r="D14">
-        <v>8.324103813980873</v>
+        <v>4.887411905176575</v>
       </c>
       <c r="E14">
-        <v>13.28420635488909</v>
+        <v>11.16680066995422</v>
       </c>
       <c r="F14">
-        <v>40.90085237832001</v>
+        <v>53.10883654391906</v>
       </c>
       <c r="G14">
-        <v>3.619181755378191</v>
+        <v>1.948687788428682</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.987127206179997</v>
+        <v>7.531318503264214</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>31.01418544175409</v>
+        <v>39.98756071898963</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.666573847298634</v>
+        <v>9.68292420030639</v>
       </c>
       <c r="D15">
-        <v>8.325361550291001</v>
+        <v>4.883511041248176</v>
       </c>
       <c r="E15">
-        <v>13.28011634602458</v>
+        <v>11.11923942445181</v>
       </c>
       <c r="F15">
-        <v>40.82672936358064</v>
+        <v>52.7813902412166</v>
       </c>
       <c r="G15">
-        <v>3.619650890739402</v>
+        <v>1.950287513647683</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.986031596312412</v>
+        <v>7.504483944348022</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>30.96067881572742</v>
+        <v>39.73531325442509</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.54716260824822</v>
+        <v>9.329732729216104</v>
       </c>
       <c r="D16">
-        <v>8.332842487610503</v>
+        <v>4.8620704363417</v>
       </c>
       <c r="E16">
-        <v>13.25752713912081</v>
+        <v>10.84781508857489</v>
       </c>
       <c r="F16">
-        <v>40.40298223827926</v>
+        <v>50.89238984834948</v>
       </c>
       <c r="G16">
-        <v>3.622379074251351</v>
+        <v>1.959437476975274</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.980338910971648</v>
+        <v>7.352155846829382</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>30.65498779838077</v>
+        <v>38.2789239305667</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.473052887979478</v>
+        <v>9.10991280152022</v>
       </c>
       <c r="D17">
-        <v>8.337675848306244</v>
+        <v>4.84970575637929</v>
       </c>
       <c r="E17">
-        <v>13.24442954544496</v>
+        <v>10.68225234194596</v>
       </c>
       <c r="F17">
-        <v>40.144071592475</v>
+        <v>49.72170052573928</v>
       </c>
       <c r="G17">
-        <v>3.624088314602398</v>
+        <v>1.965041776126117</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.977369701394309</v>
+        <v>7.259950308084901</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30.46838297396408</v>
+        <v>37.37522662739554</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.430128156078242</v>
+        <v>8.982269051776168</v>
       </c>
       <c r="D18">
-        <v>8.340545605306088</v>
+        <v>4.842873556241579</v>
       </c>
       <c r="E18">
-        <v>13.23717647786321</v>
+        <v>10.58735313429317</v>
       </c>
       <c r="F18">
-        <v>39.99558975782939</v>
+        <v>49.04375770153573</v>
       </c>
       <c r="G18">
-        <v>3.62508454699288</v>
+        <v>1.9682644237561</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.975854225933658</v>
+        <v>7.2073550396249</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.36143056204235</v>
+        <v>36.85147230653769</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.415544782208891</v>
+        <v>8.938838708019532</v>
       </c>
       <c r="D19">
-        <v>8.341532672509217</v>
+        <v>4.8406074050672</v>
       </c>
       <c r="E19">
-        <v>13.23476894553338</v>
+        <v>10.55527671069225</v>
       </c>
       <c r="F19">
-        <v>39.94539640463731</v>
+        <v>48.81340840347645</v>
       </c>
       <c r="G19">
-        <v>3.625424112149467</v>
+        <v>1.969355641645103</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.975374153825003</v>
+        <v>7.189621086607984</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.32528672754191</v>
+        <v>36.67343799849671</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5.480973273934521</v>
+        <v>9.133437019196339</v>
       </c>
       <c r="D20">
-        <v>8.337152042595159</v>
+        <v>4.850992836477114</v>
       </c>
       <c r="E20">
-        <v>13.24579481525484</v>
+        <v>10.69984243445476</v>
       </c>
       <c r="F20">
-        <v>40.17158907014781</v>
+        <v>49.84679276666002</v>
       </c>
       <c r="G20">
-        <v>3.623905005908868</v>
+        <v>1.964445324884242</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.977665874913981</v>
+        <v>7.269719953759093</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>30.48820912084535</v>
+        <v>37.47183342446613</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.697127250980085</v>
+        <v>9.773182895026547</v>
       </c>
       <c r="D21">
-        <v>8.323505528986789</v>
+        <v>4.889299033023615</v>
       </c>
       <c r="E21">
-        <v>13.28618260483255</v>
+        <v>11.18962856026795</v>
       </c>
       <c r="F21">
-        <v>40.93641259953612</v>
+        <v>53.26564419846456</v>
       </c>
       <c r="G21">
-        <v>3.618957493960103</v>
+        <v>1.947920270251526</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.987662937952054</v>
+        <v>7.54421284778691</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>31.03985853224044</v>
+        <v>40.10833649392758</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>5.835422455774034</v>
+        <v>10.18169429665391</v>
       </c>
       <c r="D22">
-        <v>8.315384781008179</v>
+        <v>4.917050411194588</v>
       </c>
       <c r="E22">
-        <v>13.31505285444387</v>
+        <v>11.51316463039083</v>
       </c>
       <c r="F22">
-        <v>41.43904107124746</v>
+        <v>55.46470673314423</v>
       </c>
       <c r="G22">
-        <v>3.615839929079876</v>
+        <v>1.937057295329504</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.995906512116214</v>
+        <v>7.72794658152068</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>31.40297030428745</v>
+        <v>41.80076692353079</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.761897942792263</v>
+        <v>9.964480609206984</v>
       </c>
       <c r="D23">
-        <v>8.319646008059124</v>
+        <v>4.901978545496731</v>
       </c>
       <c r="E23">
-        <v>13.29941899025573</v>
+        <v>11.34014117888673</v>
       </c>
       <c r="F23">
-        <v>41.17057863238667</v>
+        <v>54.29395156935443</v>
       </c>
       <c r="G23">
-        <v>3.617493270602819</v>
+        <v>1.942863804381373</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.991350479635134</v>
+        <v>7.629462536240592</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>31.20897271189405</v>
+        <v>40.9000357871999</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.477393454532767</v>
+        <v>9.122805676967044</v>
       </c>
       <c r="D24">
-        <v>8.3373885717213</v>
+        <v>4.850410088946849</v>
       </c>
       <c r="E24">
-        <v>13.2451767140214</v>
+        <v>10.69188907050792</v>
       </c>
       <c r="F24">
-        <v>40.1591472555916</v>
+        <v>49.79025387662482</v>
       </c>
       <c r="G24">
-        <v>3.623987837499457</v>
+        <v>1.964714977850514</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.977531378164741</v>
+        <v>7.265301808714912</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>30.47924468572206</v>
+        <v>37.42817064254718</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.159325451038388</v>
+        <v>8.168208702626236</v>
       </c>
       <c r="D25">
-        <v>8.359958167409118</v>
+        <v>4.805379646435754</v>
       </c>
       <c r="E25">
-        <v>13.19739254666036</v>
+        <v>10.00518796978217</v>
       </c>
       <c r="F25">
-        <v>39.08552773273311</v>
+        <v>44.88738445872441</v>
       </c>
       <c r="G25">
-        <v>3.631495555123247</v>
+        <v>1.988276721342018</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.969978108515276</v>
+        <v>6.889191731593002</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.70702748933627</v>
+        <v>33.52978917914101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>7.419916800493217</v>
+        <v>3.824489540852784</v>
       </c>
       <c r="D2">
-        <v>4.780316404369228</v>
+        <v>4.55436670392892</v>
       </c>
       <c r="E2">
-        <v>9.509247275504238</v>
+        <v>11.11098937968473</v>
       </c>
       <c r="F2">
-        <v>41.26537917310198</v>
+        <v>52.24032131867956</v>
       </c>
       <c r="G2">
-        <v>2.005860463104125</v>
+        <v>77.00571329478507</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.270907504593513</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.906224172470827</v>
       </c>
       <c r="J2">
-        <v>6.625206055635697</v>
+        <v>20.2331940844812</v>
+      </c>
+      <c r="K2">
+        <v>36.54613041167082</v>
       </c>
       <c r="L2">
+        <v>8.634322313226438</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.84235715246497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>25.60720851682374</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>6.882246722338077</v>
+        <v>3.532343353574956</v>
       </c>
       <c r="D3">
-        <v>4.76794149204025</v>
+        <v>4.488316343830864</v>
       </c>
       <c r="E3">
-        <v>9.179329946718353</v>
+        <v>10.62345571708197</v>
       </c>
       <c r="F3">
-        <v>38.73022454327984</v>
+        <v>49.19104399068344</v>
       </c>
       <c r="G3">
-        <v>2.018023020747489</v>
+        <v>72.14742273790229</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.857616637351863</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.522768110351301</v>
       </c>
       <c r="J3">
-        <v>6.454006984632561</v>
+        <v>19.18537915977975</v>
+      </c>
+      <c r="K3">
+        <v>34.45626957139107</v>
       </c>
       <c r="L3">
+        <v>8.287629514263211</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.97036605393617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>6.536407703214057</v>
+        <v>3.350830858341844</v>
       </c>
       <c r="D4">
-        <v>4.762487790653432</v>
+        <v>4.447432112657741</v>
       </c>
       <c r="E4">
-        <v>8.980024321066473</v>
+        <v>10.31472007107813</v>
       </c>
       <c r="F4">
-        <v>37.1348715194878</v>
+        <v>47.23253143862292</v>
       </c>
       <c r="G4">
-        <v>2.025640147927714</v>
+        <v>69.01117724519288</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.596931223066603</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.281317854485675</v>
       </c>
       <c r="J4">
-        <v>6.352636191121147</v>
+        <v>18.51662238130311</v>
+      </c>
+      <c r="K4">
+        <v>33.1125279854156</v>
       </c>
       <c r="L4">
+        <v>8.067755676317939</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.79376843338407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>23.33595077662917</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>6.391438969529542</v>
+        <v>3.281902234382719</v>
       </c>
       <c r="D5">
-        <v>4.760786710823253</v>
+        <v>4.430823199298635</v>
       </c>
       <c r="E5">
-        <v>8.899673335319925</v>
+        <v>10.187124493863</v>
       </c>
       <c r="F5">
-        <v>36.47533572515511</v>
+        <v>46.39334620124387</v>
       </c>
       <c r="G5">
-        <v>2.028785446003732</v>
+        <v>67.65993679438648</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.488000558399061</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.18044204775235</v>
       </c>
       <c r="J5">
-        <v>6.312265788661469</v>
+        <v>18.2300251181888</v>
+      </c>
+      <c r="K5">
+        <v>32.53062402763471</v>
       </c>
       <c r="L5">
+        <v>7.975589754511468</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.30771434255106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>6.367120806816601</v>
+        <v>3.277375048283556</v>
       </c>
       <c r="D6">
-        <v>4.76053523061443</v>
+        <v>4.428259465617221</v>
       </c>
       <c r="E6">
-        <v>8.886385066009419</v>
+        <v>10.16649758093789</v>
       </c>
       <c r="F6">
-        <v>36.36526460933418</v>
+        <v>46.22859623986002</v>
       </c>
       <c r="G6">
-        <v>2.029310314623328</v>
+        <v>67.39061684689165</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.468725483494936</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.162628585110644</v>
       </c>
       <c r="J6">
-        <v>6.305618985443216</v>
+        <v>18.17242920886179</v>
+      </c>
+      <c r="K6">
+        <v>32.40944743772513</v>
       </c>
       <c r="L6">
+        <v>7.959177441181307</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.22661795448159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>22.90084339962192</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>6.534469058205664</v>
+        <v>3.368239801673701</v>
       </c>
       <c r="D7">
-        <v>4.762462761330187</v>
+        <v>4.447717929619424</v>
       </c>
       <c r="E7">
-        <v>8.978937097674804</v>
+        <v>10.31488344020331</v>
       </c>
       <c r="F7">
-        <v>37.12601435316883</v>
+        <v>47.15664330619403</v>
       </c>
       <c r="G7">
-        <v>2.025682394793043</v>
+        <v>68.87907179712475</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.592541075175446</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.277075157066124</v>
       </c>
       <c r="J7">
-        <v>6.352087941853325</v>
+        <v>18.48687970353945</v>
+      </c>
+      <c r="K7">
+        <v>33.04131619655176</v>
       </c>
       <c r="L7">
+        <v>8.063805171713161</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.78723955156481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>7.237733906893315</v>
+        <v>3.746024154017292</v>
       </c>
       <c r="D8">
-        <v>4.775593320832189</v>
+        <v>4.532196553980818</v>
       </c>
       <c r="E8">
-        <v>9.394838744755369</v>
+        <v>10.94712514433711</v>
       </c>
       <c r="F8">
-        <v>40.39944576938567</v>
+        <v>51.12671069312699</v>
       </c>
       <c r="G8">
-        <v>2.010025485171375</v>
+        <v>75.22174007701003</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.125946343070282</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.771005359747122</v>
       </c>
       <c r="J8">
-        <v>6.56539630384161</v>
+        <v>19.84485010318332</v>
+      </c>
+      <c r="K8">
+        <v>35.75939322717512</v>
       </c>
       <c r="L8">
+        <v>8.512762313400525</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.20265043434653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>8.496502102439692</v>
+        <v>4.444511715131584</v>
       </c>
       <c r="D9">
-        <v>4.819228356888903</v>
+        <v>4.695724463255618</v>
       </c>
       <c r="E9">
-        <v>10.23497602653493</v>
+        <v>12.10991939343357</v>
       </c>
       <c r="F9">
-        <v>46.50576077762684</v>
+        <v>58.32457203962021</v>
       </c>
       <c r="G9">
-        <v>1.980317961362469</v>
+        <v>86.62681217796271</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.126029948932539</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5.701623035564515</v>
       </c>
       <c r="J9">
-        <v>7.013805013951036</v>
+        <v>22.34315059877089</v>
+      </c>
+      <c r="K9">
+        <v>40.70602881657667</v>
       </c>
       <c r="L9">
+        <v>9.342008928750719</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>34.86531709445575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>28.34722074380644</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>9.354655558205833</v>
+        <v>4.930300109867922</v>
       </c>
       <c r="D10">
-        <v>4.863519940609317</v>
+        <v>4.815863738209336</v>
       </c>
       <c r="E10">
-        <v>10.86675273434241</v>
+        <v>12.73764726438931</v>
       </c>
       <c r="F10">
-        <v>51.0253678461369</v>
+        <v>62.83421957989128</v>
       </c>
       <c r="G10">
-        <v>1.958797704651082</v>
+        <v>93.7981977733042</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.804305127632313</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.345150498886534</v>
       </c>
       <c r="J10">
-        <v>7.362737833964032</v>
+        <v>23.9356808400663</v>
+      </c>
+      <c r="K10">
+        <v>43.83177318331861</v>
       </c>
       <c r="L10">
+        <v>9.798464944961074</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>38.38151826727248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>30.48602834203865</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>9.732307392773503</v>
+        <v>4.929104277517525</v>
       </c>
       <c r="D11">
-        <v>4.88666232648642</v>
+        <v>4.912243603477527</v>
       </c>
       <c r="E11">
-        <v>11.15770093574516</v>
+        <v>11.53597525148771</v>
       </c>
       <c r="F11">
-        <v>53.04626532141463</v>
+        <v>61.91728226284047</v>
       </c>
       <c r="G11">
-        <v>1.948993791742334</v>
+        <v>93.10339342545262</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.265900497533589</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.482692813270117</v>
       </c>
       <c r="J11">
-        <v>7.526181146053639</v>
+        <v>23.73179205055713</v>
+      </c>
+      <c r="K11">
+        <v>43.54957844709634</v>
       </c>
       <c r="L11">
+        <v>9.024552935799102</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>39.93936365335509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>31.41016321374476</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>9.87365249814871</v>
+        <v>4.831030074766947</v>
       </c>
       <c r="D12">
-        <v>4.895888649646747</v>
+        <v>5.0369789565034</v>
       </c>
       <c r="E12">
-        <v>11.26845561196099</v>
+        <v>10.54793522121548</v>
       </c>
       <c r="F12">
-        <v>53.80538298888761</v>
+        <v>60.26551289158837</v>
       </c>
       <c r="G12">
-        <v>1.945271275990371</v>
+        <v>91.15178326394421</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.008576315420994</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.474876120453528</v>
       </c>
       <c r="J12">
-        <v>7.58881022344031</v>
+        <v>23.25394145292595</v>
+      </c>
+      <c r="K12">
+        <v>42.73259766394995</v>
       </c>
       <c r="L12">
+        <v>8.344804297856683</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>40.5239522848908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>31.75299711977163</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>9.843282361506873</v>
+        <v>4.669291144070939</v>
       </c>
       <c r="D13">
-        <v>4.893880449221933</v>
+        <v>5.183015049063735</v>
       </c>
       <c r="E13">
-        <v>11.24457539524078</v>
+        <v>9.695198557860509</v>
       </c>
       <c r="F13">
-        <v>53.64215257220675</v>
+        <v>57.82230435188281</v>
       </c>
       <c r="G13">
-        <v>1.946073571084455</v>
+        <v>87.91861373382375</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.901623833927245</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.350941423456622</v>
       </c>
       <c r="J13">
-        <v>7.575288007499363</v>
+        <v>22.49113375404354</v>
+      </c>
+      <c r="K13">
+        <v>41.35375066993299</v>
       </c>
       <c r="L13">
+        <v>7.699668205051957</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>40.39827584306326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>31.67947945617575</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>9.743968234584102</v>
+        <v>4.532345584721495</v>
       </c>
       <c r="D14">
-        <v>4.887411905176575</v>
+        <v>5.298136263295778</v>
       </c>
       <c r="E14">
-        <v>11.16680066995422</v>
+        <v>9.214137155036555</v>
       </c>
       <c r="F14">
-        <v>53.10883654391906</v>
+        <v>55.7089608630606</v>
       </c>
       <c r="G14">
-        <v>1.948687788428682</v>
+        <v>85.00791832375175</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.602790155129253</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.212358980174808</v>
       </c>
       <c r="J14">
-        <v>7.531318503264214</v>
+        <v>21.81372470956976</v>
+      </c>
+      <c r="K14">
+        <v>40.10328137432119</v>
       </c>
       <c r="L14">
+        <v>7.284737281607271</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>39.98756071898963</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>31.43851144188476</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>9.68292420030639</v>
+        <v>4.483734631694011</v>
       </c>
       <c r="D15">
-        <v>4.883511041248176</v>
+        <v>5.319520764243589</v>
       </c>
       <c r="E15">
-        <v>11.11923942445181</v>
+        <v>9.103138209490936</v>
       </c>
       <c r="F15">
-        <v>52.7813902412166</v>
+        <v>55.00048009403005</v>
       </c>
       <c r="G15">
-        <v>1.950287513647683</v>
+        <v>83.98155188858293</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.756817007331724</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.152253297321874</v>
       </c>
       <c r="J15">
-        <v>7.504483944348022</v>
+        <v>21.57859805791777</v>
+      </c>
+      <c r="K15">
+        <v>39.65585042703694</v>
       </c>
       <c r="L15">
+        <v>7.181659584136995</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>39.73531325442509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>31.28998244549472</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>9.329732729216104</v>
+        <v>4.304804805200256</v>
       </c>
       <c r="D16">
-        <v>4.8620704363417</v>
+        <v>5.230744808436995</v>
       </c>
       <c r="E16">
-        <v>10.84781508857489</v>
+        <v>8.964838347837183</v>
       </c>
       <c r="F16">
-        <v>50.89238984834948</v>
+        <v>53.42808085056715</v>
       </c>
       <c r="G16">
-        <v>1.959437476975274</v>
+        <v>81.38134780498868</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.40975721377677</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5.904712677573336</v>
       </c>
       <c r="J16">
-        <v>7.352155846829382</v>
+        <v>21.01125204469715</v>
+      </c>
+      <c r="K16">
+        <v>38.51703125703659</v>
       </c>
       <c r="L16">
+        <v>7.093595090441973</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>38.2789239305667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>30.42464283346099</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>9.10991280152022</v>
+        <v>4.241026884309335</v>
       </c>
       <c r="D17">
-        <v>4.84970575637929</v>
+        <v>5.096795344996448</v>
       </c>
       <c r="E17">
-        <v>10.68225234194596</v>
+        <v>9.09038233374017</v>
       </c>
       <c r="F17">
-        <v>49.72170052573928</v>
+        <v>53.37732747213112</v>
       </c>
       <c r="G17">
-        <v>1.965041776126117</v>
+        <v>80.97272705394222</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.71071932952463</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.787101615695844</v>
       </c>
       <c r="J17">
-        <v>7.259950308084901</v>
+        <v>20.94452386560205</v>
+      </c>
+      <c r="K17">
+        <v>38.32235072673122</v>
       </c>
       <c r="L17">
+        <v>7.237483305583455</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>37.37522662739554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>29.88120505119274</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>8.982269051776168</v>
+        <v>4.277255457825428</v>
       </c>
       <c r="D18">
-        <v>4.842873556241579</v>
+        <v>4.939337234709575</v>
       </c>
       <c r="E18">
-        <v>10.58735313429317</v>
+        <v>9.606437469636408</v>
       </c>
       <c r="F18">
-        <v>49.04375770153573</v>
+        <v>54.68881377596222</v>
       </c>
       <c r="G18">
-        <v>1.9682644237561</v>
+        <v>82.51259151204799</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.719542015314868</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.773396266972232</v>
       </c>
       <c r="J18">
-        <v>7.2073550396249</v>
+        <v>21.32299191307646</v>
+      </c>
+      <c r="K18">
+        <v>38.97372267489886</v>
       </c>
       <c r="L18">
+        <v>7.661223823884638</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>36.85147230653769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>29.5640428768043</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>8.938838708019532</v>
+        <v>4.426532128752525</v>
       </c>
       <c r="D19">
-        <v>4.8406074050672</v>
+        <v>4.81209008995177</v>
       </c>
       <c r="E19">
-        <v>10.55527671069225</v>
+        <v>10.57342692850888</v>
       </c>
       <c r="F19">
-        <v>48.81340840347645</v>
+        <v>56.87324083351994</v>
       </c>
       <c r="G19">
-        <v>1.969355641645103</v>
+        <v>85.30263426281061</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.818278867274183</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5.846469251354682</v>
       </c>
       <c r="J19">
-        <v>7.189621086607984</v>
+        <v>21.98322360482297</v>
+      </c>
+      <c r="K19">
+        <v>40.14696914993664</v>
       </c>
       <c r="L19">
+        <v>8.347354255466627</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>36.67343799849671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>29.45587200880252</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>9.133437019196339</v>
+        <v>4.842399859062065</v>
       </c>
       <c r="D20">
-        <v>4.850992836477114</v>
+        <v>4.784428872128242</v>
       </c>
       <c r="E20">
-        <v>10.69984243445476</v>
+        <v>12.5702852314752</v>
       </c>
       <c r="F20">
-        <v>49.84679276666002</v>
+        <v>61.4977991097054</v>
       </c>
       <c r="G20">
-        <v>1.964445324884242</v>
+        <v>91.6573270971833</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.616550909188943</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6.167837216959863</v>
       </c>
       <c r="J20">
-        <v>7.269719953759093</v>
+        <v>23.45420451838843</v>
+      </c>
+      <c r="K20">
+        <v>42.86072436165621</v>
       </c>
       <c r="L20">
+        <v>9.667206529980438</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>37.47183342446613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>29.93953086719064</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>9.773182895026547</v>
+        <v>5.250012650584232</v>
       </c>
       <c r="D21">
-        <v>4.889299033023615</v>
+        <v>4.879439557546726</v>
       </c>
       <c r="E21">
-        <v>11.18962856026795</v>
+        <v>13.32393420230427</v>
       </c>
       <c r="F21">
-        <v>53.26564419846456</v>
+        <v>65.37412714158151</v>
       </c>
       <c r="G21">
-        <v>1.947920270251526</v>
+        <v>97.67331749588075</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.179581046230944</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.685484230959547</v>
       </c>
       <c r="J21">
-        <v>7.54421284778691</v>
+        <v>24.80804001113421</v>
+      </c>
+      <c r="K21">
+        <v>45.48941364702983</v>
       </c>
       <c r="L21">
+        <v>10.19234783702165</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>40.10833649392758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>31.50948335633596</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>10.18169429665391</v>
+        <v>5.486508087707434</v>
       </c>
       <c r="D22">
-        <v>4.917050411194588</v>
+        <v>4.941135551869398</v>
       </c>
       <c r="E22">
-        <v>11.51316463039083</v>
+        <v>13.71329265176906</v>
       </c>
       <c r="F22">
-        <v>55.46470673314423</v>
+        <v>67.72687307790829</v>
       </c>
       <c r="G22">
-        <v>1.937057295329504</v>
+        <v>101.3652997478512</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.533217692798039</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>7.016934168284656</v>
       </c>
       <c r="J22">
-        <v>7.72794658152068</v>
+        <v>25.64291942958452</v>
+      </c>
+      <c r="K22">
+        <v>47.12193455996599</v>
       </c>
       <c r="L22">
+        <v>10.47233260945067</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>41.80076692353079</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>32.49403281050594</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>9.964480609206984</v>
+        <v>5.345709812673443</v>
       </c>
       <c r="D23">
-        <v>4.901978545496731</v>
+        <v>4.907811380234162</v>
       </c>
       <c r="E23">
-        <v>11.34014117888673</v>
+        <v>13.50466152937897</v>
       </c>
       <c r="F23">
-        <v>54.29395156935443</v>
+        <v>66.53693505836287</v>
       </c>
       <c r="G23">
-        <v>1.942863804381373</v>
+        <v>99.50810213518817</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.348117528676935</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.843525929304703</v>
       </c>
       <c r="J23">
-        <v>7.629462536240592</v>
+        <v>25.22373763867859</v>
+      </c>
+      <c r="K23">
+        <v>46.31339173081007</v>
       </c>
       <c r="L23">
+        <v>10.32626977487985</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>40.9000357871999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>31.97238356075506</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>9.122805676967044</v>
+        <v>4.835757649720154</v>
       </c>
       <c r="D24">
-        <v>4.850410088946849</v>
+        <v>4.783773223132908</v>
       </c>
       <c r="E24">
-        <v>10.69188907050792</v>
+        <v>12.70289817135322</v>
       </c>
       <c r="F24">
-        <v>49.79025387662482</v>
+        <v>61.78967604872607</v>
       </c>
       <c r="G24">
-        <v>1.964714977850514</v>
+        <v>92.06494088237336</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.636861756633662</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6.177807834857884</v>
       </c>
       <c r="J24">
-        <v>7.265301808714912</v>
+        <v>23.55134955804694</v>
+      </c>
+      <c r="K24">
+        <v>43.05615625462741</v>
       </c>
       <c r="L24">
+        <v>9.757409422979697</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>37.42817064254718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>29.91317649911916</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>8.168208702626236</v>
+        <v>4.283166111136184</v>
       </c>
       <c r="D25">
-        <v>4.805379646435754</v>
+        <v>4.652099493145446</v>
       </c>
       <c r="E25">
-        <v>10.00518796978217</v>
+        <v>11.80592598854206</v>
       </c>
       <c r="F25">
-        <v>44.88738445872441</v>
+        <v>56.3512914317583</v>
       </c>
       <c r="G25">
-        <v>1.988276721342018</v>
+        <v>83.49556193941829</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.855145840886351</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5.448672440704008</v>
       </c>
       <c r="J25">
-        <v>6.889191731593002</v>
+        <v>21.64899882550488</v>
+      </c>
+      <c r="K25">
+        <v>39.32132791582071</v>
       </c>
       <c r="L25">
+        <v>9.119062527940832</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>33.52978917914101</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>27.51708508088413</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.824489540852784</v>
+        <v>6.248562661493743</v>
       </c>
       <c r="D2">
-        <v>4.55436670392892</v>
+        <v>4.684291138586064</v>
       </c>
       <c r="E2">
-        <v>11.11098937968473</v>
+        <v>11.22268319126435</v>
       </c>
       <c r="F2">
-        <v>52.24032131867956</v>
+        <v>46.59973073653079</v>
       </c>
       <c r="G2">
-        <v>77.00571329478507</v>
+        <v>66.71483292365282</v>
       </c>
       <c r="H2">
-        <v>3.270907504593513</v>
+        <v>2.941594228660925</v>
       </c>
       <c r="I2">
-        <v>4.906224172470827</v>
+        <v>4.501649087860339</v>
       </c>
       <c r="J2">
-        <v>20.2331940844812</v>
+        <v>18.44300086453434</v>
       </c>
       <c r="K2">
-        <v>36.54613041167082</v>
+        <v>31.00744347681336</v>
       </c>
       <c r="L2">
-        <v>8.634322313226438</v>
+        <v>25.28270386754122</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>21.59854043787496</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.362516971800343</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25.60720851682374</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>25.60720851682176</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.532343353574956</v>
+        <v>5.733785300757113</v>
       </c>
       <c r="D3">
-        <v>4.488316343830864</v>
+        <v>4.627448610214016</v>
       </c>
       <c r="E3">
-        <v>10.62345571708197</v>
+        <v>10.75055579376064</v>
       </c>
       <c r="F3">
-        <v>49.19104399068344</v>
+        <v>44.08621978273927</v>
       </c>
       <c r="G3">
-        <v>72.14742273790229</v>
+        <v>62.74407555409602</v>
       </c>
       <c r="H3">
-        <v>2.857616637351863</v>
+        <v>2.591517120874137</v>
       </c>
       <c r="I3">
-        <v>4.522768110351301</v>
+        <v>4.204517414542205</v>
       </c>
       <c r="J3">
-        <v>19.18537915977975</v>
+        <v>17.60285804407689</v>
       </c>
       <c r="K3">
-        <v>34.45626957139107</v>
+        <v>29.43322016651025</v>
       </c>
       <c r="L3">
-        <v>8.287629514263211</v>
+        <v>24.41013379408649</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>20.04879663581633</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.0566949147239</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>24.22561817997339</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.350830858341844</v>
+        <v>5.407200586487545</v>
       </c>
       <c r="D4">
-        <v>4.447432112657741</v>
+        <v>4.593101736026776</v>
       </c>
       <c r="E4">
-        <v>10.31472007107813</v>
+        <v>10.45109517021057</v>
       </c>
       <c r="F4">
-        <v>47.23253143862292</v>
+        <v>42.47017122971714</v>
       </c>
       <c r="G4">
-        <v>69.01117724519288</v>
+        <v>60.17978147939761</v>
       </c>
       <c r="H4">
-        <v>2.596931223066603</v>
+        <v>2.369774404987317</v>
       </c>
       <c r="I4">
-        <v>4.281317854485675</v>
+        <v>4.016791645144577</v>
       </c>
       <c r="J4">
-        <v>18.51662238130311</v>
+        <v>17.0640979967107</v>
       </c>
       <c r="K4">
-        <v>33.1125279854156</v>
+        <v>28.41967095618356</v>
       </c>
       <c r="L4">
-        <v>8.067755676317939</v>
+        <v>23.84207230350342</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>19.05700728478548</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.862484048222592</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>23.33595077662917</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.281902234382719</v>
+        <v>5.282279431499978</v>
       </c>
       <c r="D5">
-        <v>4.430823199298635</v>
+        <v>4.580385413702779</v>
       </c>
       <c r="E5">
-        <v>10.187124493863</v>
+        <v>10.32742058286229</v>
       </c>
       <c r="F5">
-        <v>46.39334620124387</v>
+        <v>41.77600217683117</v>
       </c>
       <c r="G5">
-        <v>67.65993679438648</v>
+        <v>59.07186804676535</v>
       </c>
       <c r="H5">
-        <v>2.488000558399061</v>
+        <v>2.276969399387036</v>
       </c>
       <c r="I5">
-        <v>4.18044204775235</v>
+        <v>3.938503955111002</v>
       </c>
       <c r="J5">
-        <v>18.2300251181888</v>
+        <v>16.83196208902898</v>
       </c>
       <c r="K5">
-        <v>32.53062402763471</v>
+        <v>27.97788101163349</v>
       </c>
       <c r="L5">
-        <v>7.975589754511468</v>
+        <v>23.58950035947506</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>18.63011246892356</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.781067108047648</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>22.96331756195408</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.277375048283556</v>
+        <v>5.274643394577616</v>
       </c>
       <c r="D6">
-        <v>4.428259465617221</v>
+        <v>4.579702164472208</v>
       </c>
       <c r="E6">
-        <v>10.16649758093789</v>
+        <v>10.30762568547287</v>
       </c>
       <c r="F6">
-        <v>46.22859623986002</v>
+        <v>41.63802808215949</v>
       </c>
       <c r="G6">
-        <v>67.39061684689165</v>
+        <v>58.84749309751152</v>
       </c>
       <c r="H6">
-        <v>2.468725483494936</v>
+        <v>2.260615160585824</v>
       </c>
       <c r="I6">
-        <v>4.162628585110644</v>
+        <v>3.925081945405583</v>
       </c>
       <c r="J6">
-        <v>18.17242920886179</v>
+        <v>16.78452701342863</v>
       </c>
       <c r="K6">
-        <v>32.40944743772513</v>
+        <v>27.88280393317678</v>
       </c>
       <c r="L6">
-        <v>7.959177441181307</v>
+        <v>23.53122348409637</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>18.54259771536003</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.766614914325162</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>22.90084339962192</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.368239801673701</v>
+        <v>5.430772776058387</v>
       </c>
       <c r="D7">
-        <v>4.447717929619424</v>
+        <v>4.599552853839897</v>
       </c>
       <c r="E7">
-        <v>10.31488344020331</v>
+        <v>10.45361778764144</v>
       </c>
       <c r="F7">
-        <v>47.15664330619403</v>
+        <v>42.36754159339038</v>
       </c>
       <c r="G7">
-        <v>68.87907179712475</v>
+        <v>60.14032506798039</v>
       </c>
       <c r="H7">
-        <v>2.592541075175446</v>
+        <v>2.365186402252875</v>
       </c>
       <c r="I7">
-        <v>4.277075157066124</v>
+        <v>4.013371887184502</v>
       </c>
       <c r="J7">
-        <v>18.48687970353945</v>
+        <v>16.95869647423421</v>
       </c>
       <c r="K7">
-        <v>33.04131619655176</v>
+        <v>28.33286019377258</v>
       </c>
       <c r="L7">
-        <v>8.063805171713161</v>
+        <v>23.77793512539847</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>18.98939351989934</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.857899673101215</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>23.33096569062624</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.746024154017292</v>
+        <v>6.085529275553109</v>
       </c>
       <c r="D8">
-        <v>4.532196553980818</v>
+        <v>4.67894764710244</v>
       </c>
       <c r="E8">
-        <v>10.94712514433711</v>
+        <v>11.07074020465999</v>
       </c>
       <c r="F8">
-        <v>51.12671069312699</v>
+        <v>45.56666096821366</v>
       </c>
       <c r="G8">
-        <v>75.22174007701003</v>
+        <v>65.48681678583853</v>
       </c>
       <c r="H8">
-        <v>3.125946343070282</v>
+        <v>2.815951144488042</v>
       </c>
       <c r="I8">
-        <v>4.771005359747122</v>
+        <v>4.394618670882293</v>
       </c>
       <c r="J8">
-        <v>19.84485010318332</v>
+        <v>17.88032806161248</v>
       </c>
       <c r="K8">
-        <v>35.75939322717512</v>
+        <v>30.32810343449432</v>
       </c>
       <c r="L8">
-        <v>8.512762313400525</v>
+        <v>24.87930573511324</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>20.96058266647955</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.251676616007678</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>25.1395913014106</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.444511715131584</v>
+        <v>7.269555700881469</v>
       </c>
       <c r="D9">
-        <v>4.695724463255618</v>
+        <v>4.822615603100525</v>
       </c>
       <c r="E9">
-        <v>12.10991939343357</v>
+        <v>12.19286332315407</v>
       </c>
       <c r="F9">
-        <v>58.32457203962021</v>
+        <v>51.47630108872744</v>
       </c>
       <c r="G9">
-        <v>86.62681217796271</v>
+        <v>74.84031418563487</v>
       </c>
       <c r="H9">
-        <v>4.126029948932539</v>
+        <v>3.656205497256281</v>
       </c>
       <c r="I9">
-        <v>5.701623035564515</v>
+        <v>5.109707211497586</v>
       </c>
       <c r="J9">
-        <v>22.34315059877089</v>
+        <v>19.83020994251818</v>
       </c>
       <c r="K9">
-        <v>40.70602881657667</v>
+        <v>34.0428875682723</v>
       </c>
       <c r="L9">
-        <v>9.342008928750719</v>
+        <v>26.91930921003864</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>24.6308032977568</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.980204857979379</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>28.34722074380644</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.930300109867922</v>
+        <v>8.00339367138819</v>
       </c>
       <c r="D10">
-        <v>4.815863738209336</v>
+        <v>4.920004881530939</v>
       </c>
       <c r="E10">
-        <v>12.73764726438931</v>
+        <v>12.78478768050914</v>
       </c>
       <c r="F10">
-        <v>62.83421957989128</v>
+        <v>54.97748386921393</v>
       </c>
       <c r="G10">
-        <v>93.7981977733042</v>
+        <v>81.03920287898706</v>
       </c>
       <c r="H10">
-        <v>4.804305127632313</v>
+        <v>4.21441420474462</v>
       </c>
       <c r="I10">
-        <v>6.345150498886534</v>
+        <v>5.595030143297118</v>
       </c>
       <c r="J10">
-        <v>23.9356808400663</v>
+        <v>20.67253828123627</v>
       </c>
       <c r="K10">
-        <v>43.83177318331861</v>
+        <v>36.25156508052825</v>
       </c>
       <c r="L10">
-        <v>9.798464944961074</v>
+        <v>28.05422195721893</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>26.89216202670762</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.360764357115235</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>30.48602834203865</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.929104277517525</v>
+        <v>7.785090640895167</v>
       </c>
       <c r="D11">
-        <v>4.912243603477527</v>
+        <v>4.768936995438394</v>
       </c>
       <c r="E11">
-        <v>11.53597525148771</v>
+        <v>11.46975451506687</v>
       </c>
       <c r="F11">
-        <v>61.91728226284047</v>
+        <v>53.68257668759949</v>
       </c>
       <c r="G11">
-        <v>93.10339342545262</v>
+        <v>81.06594254699129</v>
       </c>
       <c r="H11">
-        <v>5.265900497533589</v>
+        <v>4.705050005320431</v>
       </c>
       <c r="I11">
-        <v>6.482692813270117</v>
+        <v>5.695012126971539</v>
       </c>
       <c r="J11">
-        <v>23.73179205055713</v>
+        <v>19.64056223728936</v>
       </c>
       <c r="K11">
-        <v>43.54957844709634</v>
+        <v>35.69407282119156</v>
       </c>
       <c r="L11">
-        <v>9.024552935799102</v>
+        <v>27.41982550894761</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>26.70913902682205</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.567236822298069</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>31.41016321374476</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.831030074766947</v>
+        <v>7.443391364637584</v>
       </c>
       <c r="D12">
-        <v>5.0369789565034</v>
+        <v>4.666152485560236</v>
       </c>
       <c r="E12">
-        <v>10.54793522121548</v>
+        <v>10.35901695067901</v>
       </c>
       <c r="F12">
-        <v>60.26551289158837</v>
+        <v>52.01150651739383</v>
       </c>
       <c r="G12">
-        <v>91.15178326394421</v>
+        <v>79.70184022608564</v>
       </c>
       <c r="H12">
-        <v>6.008576315420994</v>
+        <v>5.534108588219764</v>
       </c>
       <c r="I12">
-        <v>6.474876120453528</v>
+        <v>5.688545661680707</v>
       </c>
       <c r="J12">
-        <v>23.25394145292595</v>
+        <v>18.84780195619613</v>
       </c>
       <c r="K12">
-        <v>42.73259766394995</v>
+        <v>34.89585051545259</v>
       </c>
       <c r="L12">
-        <v>8.344804297856683</v>
+        <v>26.74810427192722</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>26.18629545085323</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.892996685270258</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>31.75299711977163</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.669291144070939</v>
+        <v>7.029068524243945</v>
       </c>
       <c r="D13">
-        <v>5.183015049063735</v>
+        <v>4.610431946371429</v>
       </c>
       <c r="E13">
-        <v>9.695198557860509</v>
+        <v>9.37143050891723</v>
       </c>
       <c r="F13">
-        <v>57.82230435188281</v>
+        <v>49.90170314595774</v>
       </c>
       <c r="G13">
-        <v>87.91861373382375</v>
+        <v>76.86140883013098</v>
       </c>
       <c r="H13">
-        <v>6.901623833927245</v>
+        <v>6.526503667854504</v>
       </c>
       <c r="I13">
-        <v>6.350941423456622</v>
+        <v>5.600115237750031</v>
       </c>
       <c r="J13">
-        <v>22.49113375404354</v>
+        <v>18.30648341659936</v>
       </c>
       <c r="K13">
-        <v>41.35375066993299</v>
+        <v>33.82177908178248</v>
       </c>
       <c r="L13">
-        <v>7.699668205051957</v>
+        <v>25.97354359489404</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>25.33931163536492</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.277723881705002</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>31.67947945617575</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.532345584721495</v>
+        <v>6.707909950165177</v>
       </c>
       <c r="D14">
-        <v>5.298136263295778</v>
+        <v>4.610880591911927</v>
       </c>
       <c r="E14">
-        <v>9.214137155036555</v>
+        <v>8.795485324596793</v>
       </c>
       <c r="F14">
-        <v>55.7089608630606</v>
+        <v>48.18247847727093</v>
       </c>
       <c r="G14">
-        <v>85.00791832375175</v>
+        <v>74.14827594647701</v>
       </c>
       <c r="H14">
-        <v>7.602790155129253</v>
+        <v>7.293552854854385</v>
       </c>
       <c r="I14">
-        <v>6.212358980174808</v>
+        <v>5.501653505005708</v>
       </c>
       <c r="J14">
-        <v>21.81372470956976</v>
+        <v>18.02098915835142</v>
       </c>
       <c r="K14">
-        <v>40.10328137432119</v>
+        <v>32.91636804035603</v>
       </c>
       <c r="L14">
-        <v>7.284737281607271</v>
+        <v>25.36360315036783</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>24.57748477116962</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.896030032032048</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>31.43851144188476</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.483734631694011</v>
+        <v>6.618954025833049</v>
       </c>
       <c r="D15">
-        <v>5.319520764243589</v>
+        <v>4.614550833915522</v>
       </c>
       <c r="E15">
-        <v>9.103138209490936</v>
+        <v>8.665912770805868</v>
       </c>
       <c r="F15">
-        <v>55.00048009403005</v>
+        <v>47.64302951060517</v>
       </c>
       <c r="G15">
-        <v>83.98155188858293</v>
+        <v>73.14304012314045</v>
       </c>
       <c r="H15">
-        <v>7.756817007331724</v>
+        <v>7.465721314663816</v>
       </c>
       <c r="I15">
-        <v>6.152253297321874</v>
+        <v>5.459199226439212</v>
       </c>
       <c r="J15">
-        <v>21.57859805791777</v>
+        <v>17.98435811778641</v>
       </c>
       <c r="K15">
-        <v>39.65585042703694</v>
+        <v>32.61335410124111</v>
       </c>
       <c r="L15">
-        <v>7.181659584136995</v>
+        <v>25.17536994093329</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>24.30433022647758</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.805625664137772</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>31.28998244549472</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.304804805200256</v>
+        <v>6.436107949027339</v>
       </c>
       <c r="D16">
-        <v>5.230744808436995</v>
+        <v>4.590440799082614</v>
       </c>
       <c r="E16">
-        <v>8.964838347837183</v>
+        <v>8.571834523673028</v>
       </c>
       <c r="F16">
-        <v>53.42808085056715</v>
+        <v>46.69226696399754</v>
       </c>
       <c r="G16">
-        <v>81.38134780498868</v>
+        <v>70.34581680124258</v>
       </c>
       <c r="H16">
-        <v>7.40975721377677</v>
+        <v>7.15089426880142</v>
       </c>
       <c r="I16">
-        <v>5.904712677573336</v>
+        <v>5.279954058662469</v>
       </c>
       <c r="J16">
-        <v>21.01125204469715</v>
+        <v>18.27502593386123</v>
       </c>
       <c r="K16">
-        <v>38.51703125703659</v>
+        <v>31.98898258745999</v>
       </c>
       <c r="L16">
-        <v>7.093595090441973</v>
+        <v>24.91624397725162</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>23.59240752413051</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.752685003039341</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>30.42464283346099</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.241026884309335</v>
+        <v>6.466629130882104</v>
       </c>
       <c r="D17">
-        <v>5.096795344996448</v>
+        <v>4.557107408853954</v>
       </c>
       <c r="E17">
-        <v>9.09038233374017</v>
+        <v>8.77752745546552</v>
       </c>
       <c r="F17">
-        <v>53.37732747213112</v>
+        <v>46.86411430522948</v>
       </c>
       <c r="G17">
-        <v>80.97272705394222</v>
+        <v>69.77331849571895</v>
       </c>
       <c r="H17">
-        <v>6.71071932952463</v>
+        <v>6.445065604851543</v>
       </c>
       <c r="I17">
-        <v>5.787101615695844</v>
+        <v>5.192598564895453</v>
       </c>
       <c r="J17">
-        <v>20.94452386560205</v>
+        <v>18.55846172207252</v>
       </c>
       <c r="K17">
-        <v>38.32235072673122</v>
+        <v>31.97340622548264</v>
       </c>
       <c r="L17">
-        <v>7.237483305583455</v>
+        <v>25.02962237235394</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>23.43661073001914</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.904380473125054</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>29.88120505119274</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.277255457825428</v>
+        <v>6.685063417933907</v>
       </c>
       <c r="D18">
-        <v>4.939337234709575</v>
+        <v>4.547992276113414</v>
       </c>
       <c r="E18">
-        <v>9.606437469636408</v>
+        <v>9.406610563905012</v>
       </c>
       <c r="F18">
-        <v>54.68881377596222</v>
+        <v>48.13088971706635</v>
       </c>
       <c r="G18">
-        <v>82.51259151204799</v>
+        <v>71.01899715281678</v>
       </c>
       <c r="H18">
-        <v>5.719542015314868</v>
+        <v>5.404266339788925</v>
       </c>
       <c r="I18">
-        <v>5.773396266972232</v>
+        <v>5.179445212333905</v>
       </c>
       <c r="J18">
-        <v>21.32299191307646</v>
+        <v>19.02508518340291</v>
       </c>
       <c r="K18">
-        <v>38.97372267489886</v>
+        <v>32.56889124717448</v>
       </c>
       <c r="L18">
-        <v>7.661223823884638</v>
+        <v>25.54237139174905</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>23.81172498629762</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.317638082959522</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>29.5640428768043</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.426532128752525</v>
+        <v>7.096903646361354</v>
       </c>
       <c r="D19">
-        <v>4.81209008995177</v>
+        <v>4.616715318061928</v>
       </c>
       <c r="E19">
-        <v>10.57342692850888</v>
+        <v>10.49369054846893</v>
       </c>
       <c r="F19">
-        <v>56.87324083351994</v>
+        <v>50.09591279492938</v>
       </c>
       <c r="G19">
-        <v>85.30263426281061</v>
+        <v>73.39484081152219</v>
       </c>
       <c r="H19">
-        <v>4.818278867274183</v>
+        <v>4.410464261665314</v>
       </c>
       <c r="I19">
-        <v>5.846469251354682</v>
+        <v>5.232306892737629</v>
       </c>
       <c r="J19">
-        <v>21.98322360482297</v>
+        <v>19.62139138432196</v>
       </c>
       <c r="K19">
-        <v>40.14696914993664</v>
+        <v>33.53143502185386</v>
       </c>
       <c r="L19">
-        <v>8.347354255466627</v>
+        <v>26.28015028636501</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>24.52472762783517</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.984127967511897</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>29.45587200880252</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.842399859062065</v>
+        <v>7.918301903277751</v>
       </c>
       <c r="D20">
-        <v>4.784428872128242</v>
+        <v>4.894668751413621</v>
       </c>
       <c r="E20">
-        <v>12.5702852314752</v>
+        <v>12.62300179962855</v>
       </c>
       <c r="F20">
-        <v>61.4977991097054</v>
+        <v>54.02213323705665</v>
       </c>
       <c r="G20">
-        <v>91.6573270971833</v>
+        <v>78.96304847723111</v>
       </c>
       <c r="H20">
-        <v>4.616550909188943</v>
+        <v>4.064103620436469</v>
       </c>
       <c r="I20">
-        <v>6.167837216959863</v>
+        <v>5.468605575360596</v>
       </c>
       <c r="J20">
-        <v>23.45420451838843</v>
+        <v>20.62877860831311</v>
       </c>
       <c r="K20">
-        <v>42.86072436165621</v>
+        <v>35.60727170500367</v>
       </c>
       <c r="L20">
-        <v>9.667206529980438</v>
+        <v>27.70664547662101</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>26.25147110822703</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.254684078818547</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>29.93953086719064</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.250012650584232</v>
+        <v>8.408644224290731</v>
       </c>
       <c r="D21">
-        <v>4.879439557546726</v>
+        <v>5.073439330484423</v>
       </c>
       <c r="E21">
-        <v>13.32393420230427</v>
+        <v>13.39419062679321</v>
       </c>
       <c r="F21">
-        <v>65.37412714158151</v>
+        <v>56.56505335771358</v>
       </c>
       <c r="G21">
-        <v>97.67331749588075</v>
+        <v>85.26830796100379</v>
       </c>
       <c r="H21">
-        <v>5.179581046230944</v>
+        <v>4.509766775331205</v>
       </c>
       <c r="I21">
-        <v>6.685484230959547</v>
+        <v>5.838552034409445</v>
       </c>
       <c r="J21">
-        <v>24.80804001113421</v>
+        <v>20.18634534676569</v>
       </c>
       <c r="K21">
-        <v>45.48941364702983</v>
+        <v>37.13159604916007</v>
       </c>
       <c r="L21">
-        <v>10.19234783702165</v>
+        <v>28.46041957815955</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>27.84600836561555</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.698624663166539</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>31.50948335633596</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.486508087707434</v>
+        <v>8.659380970472233</v>
       </c>
       <c r="D22">
-        <v>4.941135551869398</v>
+        <v>5.177868642912117</v>
       </c>
       <c r="E22">
-        <v>13.71329265176906</v>
+        <v>13.78969118298891</v>
       </c>
       <c r="F22">
-        <v>67.72687307790829</v>
+        <v>58.04740570000612</v>
       </c>
       <c r="G22">
-        <v>101.3652997478512</v>
+        <v>89.22570195375727</v>
       </c>
       <c r="H22">
-        <v>5.533217692798039</v>
+        <v>4.78654956755334</v>
       </c>
       <c r="I22">
-        <v>7.016934168284656</v>
+        <v>6.072416549568313</v>
       </c>
       <c r="J22">
-        <v>25.64291942958452</v>
+        <v>19.79800292241452</v>
       </c>
       <c r="K22">
-        <v>47.12193455996599</v>
+        <v>38.04884576135505</v>
       </c>
       <c r="L22">
-        <v>10.47233260945067</v>
+        <v>28.89933255700077</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>28.8205717968361</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.925381617919497</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>32.49403281050594</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.345709812673443</v>
+        <v>8.514770049998733</v>
       </c>
       <c r="D23">
-        <v>4.907811380234162</v>
+        <v>5.108528240754323</v>
       </c>
       <c r="E23">
-        <v>13.50466152937897</v>
+        <v>13.57267771278952</v>
       </c>
       <c r="F23">
-        <v>66.53693505836287</v>
+        <v>57.38414956145557</v>
       </c>
       <c r="G23">
-        <v>99.50810213518817</v>
+        <v>87.063819054945</v>
       </c>
       <c r="H23">
-        <v>5.348117528676935</v>
+        <v>4.643665850324711</v>
       </c>
       <c r="I23">
-        <v>6.843525929304703</v>
+        <v>5.95110857329182</v>
       </c>
       <c r="J23">
-        <v>25.22373763867859</v>
+        <v>20.19217183631718</v>
       </c>
       <c r="K23">
-        <v>46.31339173081007</v>
+        <v>37.66328604429208</v>
       </c>
       <c r="L23">
-        <v>10.32626977487985</v>
+        <v>28.74153433549452</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>28.38052209125674</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.809631729222108</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>31.97238356075506</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.835757649720154</v>
+        <v>7.910458353351945</v>
       </c>
       <c r="D24">
-        <v>4.783773223132908</v>
+        <v>4.909786804696264</v>
       </c>
       <c r="E24">
-        <v>12.70289817135322</v>
+        <v>12.76306863750216</v>
       </c>
       <c r="F24">
-        <v>61.78967604872607</v>
+        <v>54.2897157433101</v>
       </c>
       <c r="G24">
-        <v>92.06494088237336</v>
+        <v>79.30968004803563</v>
       </c>
       <c r="H24">
-        <v>4.636861756633662</v>
+        <v>4.081188103737042</v>
       </c>
       <c r="I24">
-        <v>6.177807834857884</v>
+        <v>5.473654468720412</v>
       </c>
       <c r="J24">
-        <v>23.55134955804694</v>
+        <v>20.72616312779286</v>
       </c>
       <c r="K24">
-        <v>43.05615625462741</v>
+        <v>35.7779786805391</v>
       </c>
       <c r="L24">
-        <v>9.757409422979697</v>
+        <v>27.83960551441764</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>26.37582553774772</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.343091199564308</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>29.91317649911916</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.283166111136184</v>
+        <v>7.021214343913639</v>
       </c>
       <c r="D25">
-        <v>4.652099493145446</v>
+        <v>4.786176678666968</v>
       </c>
       <c r="E25">
-        <v>11.80592598854206</v>
+        <v>11.89912791115871</v>
       </c>
       <c r="F25">
-        <v>56.3512914317583</v>
+        <v>49.89495918893228</v>
       </c>
       <c r="G25">
-        <v>83.49556193941829</v>
+        <v>72.16606469245046</v>
       </c>
       <c r="H25">
-        <v>3.855145840886351</v>
+        <v>3.431481597682098</v>
       </c>
       <c r="I25">
-        <v>5.448672440704008</v>
+        <v>4.919402484335551</v>
       </c>
       <c r="J25">
-        <v>21.64899882550488</v>
+        <v>19.38657884800532</v>
       </c>
       <c r="K25">
-        <v>39.32132791582071</v>
+        <v>33.02152013353516</v>
       </c>
       <c r="L25">
-        <v>9.119062527940832</v>
+        <v>26.35158825085159</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>23.63106340785453</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.786602151782427</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>27.51708508088413</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
